--- a/biology/Zoologie/Sciara_oblonga/Sciara_oblonga.xlsx
+++ b/biology/Zoologie/Sciara_oblonga/Sciara_oblonga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sciara oblonga est une espèce fossile d'insectes diptères de la famille des Sciaridae.
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Sciara oblonga est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1],[2].
-Une collection de l'Oligocène supérieur des Bouches-du-Rhône
-L'holotype est un échantillon M2 des collections de l'Institut géologique de Marseille provenant du gypse d'Aix-en-Provence et conservé au Muséum d'histoire naturelle de Marseille[1]. Cet échantillon est de l'étage Oligocène supérieur ou Chattien, d'il y a 28 à 23,03 Ma[1],[2]
-Étymologie
-L'épithète spécifique latine oblonga signifie « oblong ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Sciara oblonga est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse,.
 </t>
         </is>
       </c>
@@ -543,19 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-Diagnose de Nicolas Théobald en 1937[1],[note 1] : 
-« Présente les mêmes caractères que S. acuminata ; mais sa taille est inférieure. 
-L'abdomen est plus gros que dans S. acuminata. Ce caractère le rapproche de S. inflata, mais ce dernier est de taille plus grande. »[1].
-Dimensions
-La longueur totale est de 3,5 mm ; la longueur des ailes est de 2,5 mm[1].
-Affinités
-« Les trois espèces S. inflata, S. acuminata et S. oblonga sont donc très voisines. »[1].
+          <t>Une collection de l'Oligocène supérieur des Bouches-du-Rhône</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype est un échantillon M2 des collections de l'Institut géologique de Marseille provenant du gypse d'Aix-en-Provence et conservé au Muséum d'histoire naturelle de Marseille. Cet échantillon est de l'étage Oligocène supérieur ou Chattien, d'il y a 28 à 23,03 Ma,
 </t>
         </is>
       </c>
@@ -581,14 +590,167 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique latine oblonga signifie « oblong ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sciara_oblonga</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sciara_oblonga</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Présente les mêmes caractères que S. acuminata ; mais sa taille est inférieure. 
+L'abdomen est plus gros que dans S. acuminata. Ce caractère le rapproche de S. inflata, mais ce dernier est de taille plus grande. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sciara_oblonga</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sciara_oblonga</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 3,5 mm ; la longueur des ailes est de 2,5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sciara_oblonga</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sciara_oblonga</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Les trois espèces S. inflata, S. acuminata et S. oblonga sont donc très voisines. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sciara_oblonga</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sciara_oblonga</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 « Ce genre est actuellement répandu dans le monde entier.
-Les larves des Sciara se développent dans les végétaux en décomposition, quelques-unes dans les bouses de vache. »[3].
+Les larves des Sciara se développent dans les végétaux en décomposition, quelques-unes dans les bouses de vache. ».
 </t>
         </is>
       </c>
